--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SV\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuant\Desktop\DoAn\DoAn\cnpm nâng cao\TrangSuc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9946E400-E734-459A-9521-A57076477544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" tabRatio="798" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Information" sheetId="7" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Product backlog V2" sheetId="8" r:id="rId4"/>
     <sheet name="Sprint backlog" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="99">
   <si>
     <t>I. Requirements</t>
   </si>
@@ -342,7 +343,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -658,7 +659,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -699,8 +700,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -722,6 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -737,11 +738,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1152,7 +1152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1416,7 +1416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1543,16 +1543,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="A8" s="29">
         <v>5</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="27" t="s">
@@ -1563,20 +1563,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="28"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="28"/>
+      <c r="E10" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1589,7 +1579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
@@ -1632,7 +1622,7 @@
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="13"/>
@@ -1641,7 +1631,7 @@
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="14">
@@ -1653,7 +1643,7 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="14">
@@ -1664,7 +1654,7 @@
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="14">
@@ -1699,8 +1689,8 @@
       <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="31" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="13"/>
@@ -1773,7 +1763,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="13"/>
@@ -1897,7 +1887,7 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="13"/>
@@ -1922,11 +1912,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1957,14 +1947,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2050,9 +2040,6 @@
       <c r="A7" t="s">
         <v>72</v>
       </c>
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
       <c r="C7" t="s">
         <v>71</v>
       </c>
@@ -2084,14 +2071,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2217,14 +2204,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -2274,14 +2261,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -2322,14 +2309,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -2386,7 +2373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2504,7 +2491,7 @@
       <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="14">
@@ -2524,7 +2511,7 @@
       <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="14">
@@ -2544,7 +2531,7 @@
       <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="14">
@@ -2564,7 +2551,7 @@
       <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="14">
